--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="950">
   <si>
     <t>anchor score</t>
   </si>
@@ -343,643 +343,643 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>commodities</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>blog</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>intentionally</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>lowe</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>holidays</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>donated</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>commodities</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>fed</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>based</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>em</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>lowe</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>cards</t>
-  </si>
-  <si>
-    <t>holidays</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>donated</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>hoping</t>
@@ -3232,7 +3232,7 @@
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3911,7 +3911,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3961,7 +3961,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4061,7 +4061,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4161,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K23">
         <v>0.9444444444444444</v>
@@ -4461,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K26">
         <v>0.9333333333333333</v>
@@ -4511,7 +4511,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K27">
         <v>0.9230769230769231</v>
@@ -4611,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K29">
         <v>0.9090909090909091</v>
@@ -4711,7 +4711,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K31">
         <v>0.9090909090909091</v>
@@ -4761,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K32">
         <v>0.9090909090909091</v>
@@ -4811,7 +4811,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K33">
         <v>0.9</v>
@@ -4961,7 +4961,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K36">
         <v>0.889763779527559</v>
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K37">
         <v>0.8888888888888888</v>
@@ -5111,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K39">
         <v>0.875</v>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K40">
         <v>0.875</v>
@@ -5211,7 +5211,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K41">
         <v>0.8666666666666667</v>
@@ -5261,7 +5261,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K42">
         <v>0.8666666666666667</v>
@@ -5361,7 +5361,7 @@
         <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K44">
         <v>0.8571428571428571</v>
@@ -5411,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K45">
         <v>0.8571428571428571</v>
@@ -5561,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K48">
         <v>0.85</v>
@@ -5611,7 +5611,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K49">
         <v>0.8461538461538461</v>
@@ -5711,7 +5711,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K51">
         <v>0.8421052631578947</v>
@@ -5811,7 +5811,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K53">
         <v>0.8333333333333334</v>
@@ -5961,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K56">
         <v>0.8333333333333334</v>
@@ -6011,7 +6011,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K57">
         <v>0.8333333333333334</v>
@@ -6061,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K58">
         <v>0.8333333333333334</v>
@@ -6111,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K59">
         <v>0.8333333333333334</v>
@@ -6211,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K61">
         <v>0.8214285714285714</v>
@@ -6261,7 +6261,7 @@
         <v>4</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K62">
         <v>0.8181818181818182</v>
@@ -6311,7 +6311,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K63">
         <v>0.8141025641025641</v>
@@ -6361,7 +6361,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K64">
         <v>0.8125</v>
@@ -6411,7 +6411,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K65">
         <v>0.8095238095238095</v>
@@ -6461,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K66">
         <v>0.8</v>
@@ -6511,7 +6511,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K67">
         <v>0.8</v>
@@ -6611,7 +6611,7 @@
         <v>5</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K69">
         <v>0.8</v>
@@ -6761,7 +6761,7 @@
         <v>5</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K72">
         <v>0.7872340425531915</v>
@@ -6811,7 +6811,7 @@
         <v>5</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K73">
         <v>0.7857142857142857</v>
@@ -6861,7 +6861,7 @@
         <v>8</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K74">
         <v>0.7826086956521739</v>
@@ -7011,28 +7011,28 @@
         <v>3</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="K77">
-        <v>0.7587719298245614</v>
+        <v>0.75</v>
       </c>
       <c r="L77">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="M77">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="N77">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -7061,7 +7061,7 @@
         <v>6</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K78">
         <v>0.75</v>
@@ -7111,28 +7111,28 @@
         <v>21</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="K79">
         <v>0.75</v>
       </c>
       <c r="L79">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -7161,7 +7161,7 @@
         <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="K80">
         <v>0.75</v>
@@ -7170,16 +7170,16 @@
         <v>6</v>
       </c>
       <c r="M80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N80">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -7211,7 +7211,7 @@
         <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K81">
         <v>0.75</v>
@@ -7261,28 +7261,28 @@
         <v>3</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="K82">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L82">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -7311,28 +7311,28 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="K83">
-        <v>0.7333333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L83">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="M83">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="N83">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -7361,7 +7361,7 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K84">
         <v>0.7272727272727273</v>
@@ -7411,7 +7411,7 @@
         <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="K85">
         <v>0.7272727272727273</v>
@@ -7420,16 +7420,16 @@
         <v>8</v>
       </c>
       <c r="M85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -7461,7 +7461,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K86">
         <v>0.7272727272727273</v>
@@ -7511,28 +7511,28 @@
         <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>92</v>
+        <v>296</v>
       </c>
       <c r="K87">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L87">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="M87">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="N87">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -7561,7 +7561,7 @@
         <v>13</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K88">
         <v>0.7142857142857143</v>
@@ -7611,7 +7611,7 @@
         <v>10</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K89">
         <v>0.7142857142857143</v>
@@ -7661,7 +7661,7 @@
         <v>7</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K90">
         <v>0.7142857142857143</v>
@@ -7711,7 +7711,7 @@
         <v>11</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K91">
         <v>0.7142857142857143</v>
@@ -7761,7 +7761,7 @@
         <v>12</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K92">
         <v>0.7142857142857143</v>
@@ -7811,7 +7811,7 @@
         <v>4</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K93">
         <v>0.7073170731707317</v>
@@ -7861,7 +7861,7 @@
         <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K94">
         <v>0.7</v>
@@ -7911,7 +7911,7 @@
         <v>12</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K95">
         <v>0.7</v>
@@ -7961,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K96">
         <v>0.6923076923076923</v>
@@ -8061,7 +8061,7 @@
         <v>8</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K98">
         <v>0.6857142857142857</v>
@@ -8111,7 +8111,7 @@
         <v>21</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K99">
         <v>0.6818181818181818</v>
@@ -8161,7 +8161,7 @@
         <v>13</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K100">
         <v>0.6666666666666666</v>
@@ -8211,7 +8211,7 @@
         <v>9</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K101">
         <v>0.6666666666666666</v>
@@ -8261,7 +8261,7 @@
         <v>9</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K102">
         <v>0.6666666666666666</v>
@@ -8311,7 +8311,7 @@
         <v>14</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K103">
         <v>0.6666666666666666</v>
@@ -8343,25 +8343,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="E104">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F104">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K104">
         <v>0.6666666666666666</v>
@@ -8396,13 +8396,13 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F105">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
@@ -8461,7 +8461,7 @@
         <v>5</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K106">
         <v>0.6666666666666666</v>
@@ -8496,13 +8496,13 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E107">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F107">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
@@ -8540,28 +8540,28 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D108">
         <v>4</v>
       </c>
       <c r="E108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K108">
         <v>0.6666666666666666</v>
@@ -8596,16 +8596,16 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
         <v>21</v>
@@ -8640,28 +8640,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.16</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C110">
         <v>4</v>
       </c>
       <c r="D110">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E110">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -8690,13 +8690,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1538461538461539</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>41</v>
@@ -8740,28 +8740,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1466666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C112">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K112">
         <v>0.6666666666666666</v>
@@ -8796,13 +8796,13 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F113">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -8811,7 +8811,7 @@
         <v>6</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K113">
         <v>0.656140350877193</v>
@@ -8843,25 +8843,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E114">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F114">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K114">
         <v>0.65</v>
@@ -8893,25 +8893,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E115">
-        <v>0.9399999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="F115">
-        <v>0.06000000000000005</v>
+        <v>0.43</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K115">
         <v>0.6470588235294118</v>
@@ -8943,25 +8943,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E116">
-        <v>0.57</v>
+        <v>0.9</v>
       </c>
       <c r="F116">
-        <v>0.43</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K116">
         <v>0.6428571428571429</v>
@@ -8993,25 +8993,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E117">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F117">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K117">
         <v>0.6428571428571429</v>
@@ -9043,25 +9043,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118">
         <v>70</v>
       </c>
       <c r="E118">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F118">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K118">
         <v>0.640625</v>
@@ -9093,22 +9093,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>99</v>
@@ -9146,22 +9146,22 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>6</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K120">
         <v>0.6363636363636364</v>
@@ -9196,13 +9196,13 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E121">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F121">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -9240,28 +9240,28 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K122">
         <v>0.6363636363636364</v>
@@ -9296,16 +9296,16 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>7</v>
@@ -9340,49 +9340,49 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E124">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F124">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="K124">
-        <v>0.6349693251533742</v>
+        <v>0.625</v>
       </c>
       <c r="L124">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>221</v>
+        <v>6</v>
       </c>
       <c r="N124">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O124">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>119</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -9390,49 +9390,49 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C125">
         <v>4</v>
       </c>
       <c r="D125">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="K125">
         <v>0.625</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M125">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N125">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="O125">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9440,13 +9440,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -9458,31 +9458,31 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="K126">
         <v>0.625</v>
       </c>
       <c r="L126">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M126">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N126">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -9490,13 +9490,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>319</v>
@@ -9543,34 +9543,34 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>320</v>
       </c>
       <c r="K128">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="L128">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="M128">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -9582,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -9593,46 +9593,46 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E129">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F129">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>321</v>
+        <v>97</v>
       </c>
       <c r="K129">
-        <v>0.62</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L129">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M129">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -9646,13 +9646,13 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E130">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F130">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -9661,28 +9661,28 @@
         <v>8</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="K130">
-        <v>0.6129032258064516</v>
+        <v>0.6115485564304461</v>
       </c>
       <c r="L130">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="M130">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="N130">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="O130">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P130" t="b">
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -9690,49 +9690,49 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c r="K131">
-        <v>0.6115485564304461</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L131">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="M131">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="N131">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -9740,13 +9740,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1052631578947368</v>
+        <v>0.1007751937984496</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>17</v>
+        <v>464</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>322</v>
@@ -9790,25 +9790,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C133">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>62</v>
@@ -9840,25 +9840,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.1007751937984496</v>
+        <v>0.1</v>
       </c>
       <c r="C134">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>464</v>
+        <v>9</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>61</v>
@@ -9893,10 +9893,10 @@
         <v>0.1</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -9908,10 +9908,10 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K135">
         <v>0.6</v>
@@ -9946,13 +9946,13 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E136">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F136">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -9996,22 +9996,22 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>9</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K137">
         <v>0.5925925925925926</v>
@@ -10040,25 +10040,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>88</v>
@@ -10090,25 +10090,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.1</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="E139">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F139">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>323</v>
@@ -10140,25 +10140,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>324</v>
@@ -10190,25 +10190,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.09259259259259259</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>0.5</v>
+      </c>
+      <c r="F141">
+        <v>0.5</v>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141">
         <v>10</v>
-      </c>
-      <c r="D141">
-        <v>197</v>
-      </c>
-      <c r="E141">
-        <v>0.95</v>
-      </c>
-      <c r="F141">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141">
-        <v>98</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>325</v>
@@ -10246,13 +10246,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F142">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10296,13 +10296,13 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E143">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F143">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
@@ -10340,25 +10340,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>328</v>
@@ -10390,25 +10390,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E145">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F145">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>83</v>
@@ -10446,16 +10446,16 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>11</v>
@@ -10496,13 +10496,13 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E147">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F147">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -10546,13 +10546,13 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F148">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -10596,13 +10596,13 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F149">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
@@ -10646,13 +10646,13 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E150">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F150">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -10696,13 +10696,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F151">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -10711,7 +10711,7 @@
         <v>11</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K151">
         <v>0.5517241379310345</v>
@@ -10740,25 +10740,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>333</v>
@@ -10790,25 +10790,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E153">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F153">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>334</v>
@@ -10846,22 +10846,22 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>12</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K154">
         <v>0.5434782608695652</v>
@@ -10890,28 +10890,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="E155">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F155">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K155">
         <v>0.5333333333333333</v>
@@ -10940,25 +10940,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E156">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="F156">
-        <v>0.06999999999999995</v>
+        <v>0.29</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>335</v>
@@ -10990,28 +10990,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K157">
         <v>0.52</v>
@@ -11043,22 +11043,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F158">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>93</v>
@@ -11096,16 +11096,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
         <v>13</v>
@@ -11146,16 +11146,16 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>13</v>
@@ -11190,25 +11190,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="E161">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F161">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>338</v>
@@ -11240,28 +11240,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K162">
         <v>0.5</v>
@@ -11296,16 +11296,16 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>14</v>
@@ -11340,13 +11340,13 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E164">
         <v>0.9399999999999999</v>
@@ -11358,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>340</v>
@@ -11390,25 +11390,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.06666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>341</v>
@@ -11440,25 +11440,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E166">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F166">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>342</v>
@@ -11490,25 +11490,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.05882352941176471</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>343</v>
@@ -11540,7 +11540,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11558,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>344</v>
@@ -11596,16 +11596,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
         <v>18</v>
@@ -11646,13 +11646,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -11696,16 +11696,16 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>18</v>
@@ -11740,25 +11740,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>348</v>
@@ -11790,25 +11790,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>349</v>
@@ -11840,25 +11840,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>350</v>
@@ -11890,25 +11890,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F175">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>86</v>
@@ -11940,25 +11940,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E176">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F176">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>351</v>
@@ -11996,13 +11996,13 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F177">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
@@ -12040,25 +12040,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>353</v>
@@ -12090,25 +12090,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E179">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F179">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>354</v>
@@ -12140,7 +12140,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12158,7 +12158,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>90</v>
@@ -12190,28 +12190,28 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K181">
         <v>0.4772727272727273</v>
@@ -12240,28 +12240,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E182">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F182">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K182">
         <v>0.4761904761904762</v>
@@ -12290,25 +12290,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>355</v>
@@ -12340,25 +12340,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.04166666666666666</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D184">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E184">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>356</v>
@@ -12390,28 +12390,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E185">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K185">
         <v>0.4615384615384616</v>
@@ -12440,25 +12440,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03896103896103896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>357</v>
@@ -12496,13 +12496,13 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
@@ -12540,25 +12540,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>359</v>
@@ -12590,28 +12590,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F189">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K189">
         <v>0.4545454545454545</v>
@@ -12640,7 +12640,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>360</v>
@@ -12690,25 +12690,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03703703703703703</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>361</v>
@@ -12740,25 +12740,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03571428571428571</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>362</v>
@@ -12790,25 +12790,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>363</v>
@@ -12840,28 +12840,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K194">
         <v>0.4444444444444444</v>
@@ -12890,28 +12890,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K195">
         <v>0.4305555555555556</v>
@@ -12940,25 +12940,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.03125</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F196">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>364</v>
@@ -12990,25 +12990,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0303030303030303</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>365</v>
@@ -13040,28 +13040,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E198">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F198">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K198">
         <v>0.4285714285714285</v>
@@ -13090,25 +13090,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>366</v>
@@ -13140,25 +13140,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F200">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>367</v>
@@ -13196,16 +13196,16 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
         <v>36</v>
@@ -13246,13 +13246,13 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E202">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F202">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
@@ -13290,25 +13290,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02702702702702703</v>
+        <v>0.025</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>370</v>
@@ -13340,25 +13340,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02702702702702703</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E204">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F204">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>371</v>
@@ -13390,25 +13390,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>372</v>
@@ -13440,25 +13440,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E206">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F206">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>373</v>
@@ -13496,16 +13496,16 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
         <v>41</v>
@@ -13540,28 +13540,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E208">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K208">
         <v>0.4074074074074074</v>
@@ -13590,7 +13590,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02380952380952381</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13608,10 +13608,10 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K209">
         <v>0.4</v>
@@ -13640,7 +13640,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02222222222222222</v>
+        <v>0.02</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13658,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>375</v>
@@ -13690,25 +13690,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>91</v>
@@ -13740,7 +13740,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>376</v>
@@ -13790,25 +13790,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>377</v>
@@ -13840,25 +13840,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0196078431372549</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>378</v>
@@ -13890,25 +13890,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E215">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F215">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>379</v>
@@ -13940,25 +13940,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>82</v>
@@ -13990,25 +13990,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01818181818181818</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C217">
         <v>2</v>
       </c>
       <c r="D217">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E217">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F217">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>380</v>
@@ -14040,28 +14040,28 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01785714285714286</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K218">
         <v>0.3902439024390244</v>
@@ -14090,28 +14090,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01639344262295082</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E219">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F219">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K219">
         <v>0.3793103448275862</v>
@@ -14140,25 +14140,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01639344262295082</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>381</v>
@@ -14190,25 +14190,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01612903225806452</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E221">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F221">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>382</v>
@@ -14240,25 +14240,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01612903225806452</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>383</v>
@@ -14290,25 +14290,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01492537313432836</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E223">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>384</v>
@@ -14340,25 +14340,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01379310344827586</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
       <c r="D224">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="E224">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F224">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>385</v>
@@ -14390,25 +14390,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01342281879194631</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>386</v>
@@ -14440,25 +14440,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01333333333333333</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="E226">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F226">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>387</v>
@@ -14490,25 +14490,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0130718954248366</v>
+        <v>0.0125</v>
       </c>
       <c r="C227">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>388</v>
@@ -14540,25 +14540,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01282051282051282</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E228">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>389</v>
@@ -14590,25 +14590,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0125</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>390</v>
@@ -14640,25 +14640,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01204819277108434</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>391</v>
@@ -14690,25 +14690,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.008733624454148471</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F231">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>392</v>
@@ -14740,28 +14740,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.008333333333333333</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F232">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K232">
         <v>0.375</v>
@@ -14790,25 +14790,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.007751937984496124</v>
+        <v>0.003128258602711158</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E233">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>128</v>
+        <v>956</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>393</v>
@@ -14840,28 +14840,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.004854368932038835</v>
+        <v>0.00303951367781155</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E234">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F234">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>205</v>
+        <v>328</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K234">
         <v>0.358974358974359</v>
@@ -14890,25 +14890,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.003128258602711158</v>
+        <v>0.002785515320334262</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>956</v>
+        <v>358</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>394</v>
@@ -14940,25 +14940,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.00303951367781155</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>395</v>
@@ -14990,28 +14990,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002785515320334262</v>
+        <v>0.0025</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E237">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F237">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K237">
         <v>0.3529411764705883</v>
@@ -15040,25 +15040,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002680965147453083</v>
+        <v>0.002366863905325444</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>372</v>
+        <v>843</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>396</v>
@@ -15090,28 +15090,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0025</v>
+        <v>0.00234192037470726</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E239">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F239">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>399</v>
+        <v>852</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K239">
         <v>0.3529411764705883</v>
@@ -15140,25 +15140,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002366863905325444</v>
+        <v>0.001742160278745645</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E240">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="F240">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>843</v>
+        <v>1146</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>397</v>
@@ -15190,13 +15190,13 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.00234192037470726</v>
+        <v>0.001661129568106312</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D241">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="E241">
         <v>0.95</v>
@@ -15208,7 +15208,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>852</v>
+        <v>3005</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>398</v>
@@ -15240,25 +15240,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.001742160278745645</v>
+        <v>0.001577287066246057</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E242">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F242">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>1146</v>
+        <v>633</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>399</v>
@@ -15290,25 +15290,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.001661129568106312</v>
+        <v>0.001162790697674419</v>
       </c>
       <c r="C243">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="E243">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F243">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>3005</v>
+        <v>859</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>400</v>
@@ -15340,25 +15340,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.001577287066246057</v>
+        <v>0.0004844961240310077</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E244">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F244">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>633</v>
+        <v>2063</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>401</v>
@@ -15386,30 +15386,6 @@
       </c>
     </row>
     <row r="245" spans="1:17">
-      <c r="A245" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245">
-        <v>0.001162790697674419</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245">
-        <v>42</v>
-      </c>
-      <c r="E245">
-        <v>0.98</v>
-      </c>
-      <c r="F245">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245">
-        <v>859</v>
-      </c>
       <c r="J245" s="1" t="s">
         <v>79</v>
       </c>
@@ -15436,32 +15412,8 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0.0004844961240310077</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>80</v>
-      </c>
-      <c r="E246">
-        <v>0.99</v>
-      </c>
-      <c r="F246">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246">
-        <v>2063</v>
-      </c>
       <c r="J246" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K246">
         <v>0.3333333333333333</v>
@@ -15695,7 +15647,7 @@
     </row>
     <row r="255" spans="1:17">
       <c r="J255" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K255">
         <v>0.3333333333333333</v>
@@ -15903,7 +15855,7 @@
     </row>
     <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K263">
         <v>0.3286384976525822</v>
@@ -16033,7 +15985,7 @@
     </row>
     <row r="268" spans="10:17">
       <c r="J268" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K268">
         <v>0.3125</v>
@@ -16111,7 +16063,7 @@
     </row>
     <row r="271" spans="10:17">
       <c r="J271" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K271">
         <v>0.3076923076923077</v>
@@ -16449,7 +16401,7 @@
     </row>
     <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K284">
         <v>0.2857142857142857</v>
@@ -16553,7 +16505,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K288">
         <v>0.2857142857142857</v>
@@ -16969,7 +16921,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K304">
         <v>0.2705314009661836</v>
@@ -17593,7 +17545,7 @@
     </row>
     <row r="328" spans="10:17">
       <c r="J328" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K328">
         <v>0.2468354430379747</v>
@@ -17697,7 +17649,7 @@
     </row>
     <row r="332" spans="10:17">
       <c r="J332" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K332">
         <v>0.2356687898089172</v>
@@ -17801,7 +17753,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K336">
         <v>0.2307692307692308</v>
@@ -18295,7 +18247,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K355">
         <v>0.2115384615384615</v>
@@ -18347,7 +18299,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K357">
         <v>0.2045454545454546</v>
@@ -18685,7 +18637,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K370">
         <v>0.1842105263157895</v>
@@ -18737,7 +18689,7 @@
     </row>
     <row r="372" spans="10:17">
       <c r="J372" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K372">
         <v>0.1818181818181818</v>
@@ -18867,7 +18819,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K377">
         <v>0.1818181818181818</v>
@@ -19023,7 +18975,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K383">
         <v>0.1739130434782609</v>
@@ -19725,7 +19677,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K410">
         <v>0.1612903225806452</v>
@@ -19803,7 +19755,7 @@
     </row>
     <row r="413" spans="10:17">
       <c r="J413" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K413">
         <v>0.1578947368421053</v>
@@ -19985,7 +19937,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K420">
         <v>0.1538461538461539</v>
@@ -20011,7 +19963,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K421">
         <v>0.1538461538461539</v>
@@ -20193,7 +20145,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K428">
         <v>0.15</v>
@@ -20245,7 +20197,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K430">
         <v>0.1473684210526316</v>
@@ -20297,7 +20249,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K432">
         <v>0.1428571428571428</v>
@@ -20557,7 +20509,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K442">
         <v>0.1428571428571428</v>
@@ -20947,7 +20899,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K457">
         <v>0.136</v>
@@ -21025,7 +20977,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K460">
         <v>0.1333333333333333</v>
@@ -21129,7 +21081,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K464">
         <v>0.1304347826086956</v>
@@ -21207,7 +21159,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K467">
         <v>0.125</v>
@@ -21311,7 +21263,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K471">
         <v>0.125</v>
@@ -22039,7 +21991,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K499">
         <v>0.1129032258064516</v>
@@ -22767,7 +22719,7 @@
     </row>
     <row r="527" spans="10:17">
       <c r="J527" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K527">
         <v>0.1071428571428571</v>
@@ -23001,7 +22953,7 @@
     </row>
     <row r="536" spans="10:17">
       <c r="J536" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K536">
         <v>0.1</v>
@@ -23053,7 +23005,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K538">
         <v>0.1</v>
@@ -23313,7 +23265,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K548">
         <v>0.09090909090909091</v>
@@ -23469,7 +23421,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K554">
         <v>0.09090909090909091</v>
@@ -23521,7 +23473,7 @@
     </row>
     <row r="556" spans="10:17">
       <c r="J556" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K556">
         <v>0.09090909090909091</v>
@@ -23573,7 +23525,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K558">
         <v>0.08771929824561403</v>
@@ -23599,7 +23551,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K559">
         <v>0.08695652173913043</v>
@@ -23677,7 +23629,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K562">
         <v>0.08333333333333333</v>
@@ -24015,7 +23967,7 @@
     </row>
     <row r="575" spans="10:17">
       <c r="J575" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K575">
         <v>0.08333333333333333</v>
@@ -24561,7 +24513,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K596">
         <v>0.07142857142857142</v>
@@ -24587,7 +24539,7 @@
     </row>
     <row r="597" spans="10:17">
       <c r="J597" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K597">
         <v>0.07142857142857142</v>
@@ -24977,7 +24929,7 @@
     </row>
     <row r="612" spans="10:17">
       <c r="J612" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K612">
         <v>0.0625</v>
@@ -25237,7 +25189,7 @@
     </row>
     <row r="622" spans="10:17">
       <c r="J622" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K622">
         <v>0.06153846153846154</v>
@@ -25549,7 +25501,7 @@
     </row>
     <row r="634" spans="10:17">
       <c r="J634" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K634">
         <v>0.05747126436781609</v>
@@ -25783,7 +25735,7 @@
     </row>
     <row r="643" spans="10:17">
       <c r="J643" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K643">
         <v>0.05555555555555555</v>
@@ -26043,7 +25995,7 @@
     </row>
     <row r="653" spans="10:17">
       <c r="J653" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K653">
         <v>0.05357142857142857</v>
@@ -26173,7 +26125,7 @@
     </row>
     <row r="658" spans="10:17">
       <c r="J658" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K658">
         <v>0.05263157894736842</v>
@@ -26719,7 +26671,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K679">
         <v>0.04615384615384616</v>
@@ -26771,7 +26723,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K681">
         <v>0.04555555555555556</v>
@@ -27005,7 +26957,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K690">
         <v>0.04484304932735426</v>
@@ -27265,7 +27217,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K700">
         <v>0.04205607476635514</v>
@@ -27811,7 +27763,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K721">
         <v>0.03855421686746988</v>
@@ -28149,7 +28101,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K734">
         <v>0.03688141923436041</v>
@@ -28565,7 +28517,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K750">
         <v>0.03404255319148936</v>
@@ -28877,7 +28829,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K762">
         <v>0.03127014829142489</v>
@@ -29033,7 +28985,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K768">
         <v>0.0303030303030303</v>
@@ -29345,7 +29297,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K780">
         <v>0.02543352601156069</v>
@@ -29449,7 +29401,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K784">
         <v>0.02465331278890601</v>
@@ -29839,7 +29791,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K799">
         <v>0.02</v>
@@ -30359,7 +30311,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K819">
         <v>0.01612903225806452</v>
@@ -31035,7 +30987,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K845">
         <v>0.01121656600517688</v>
@@ -31165,7 +31117,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K850">
         <v>0.00932642487046632</v>
@@ -31269,7 +31221,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K854">
         <v>0.007751937984496124</v>
@@ -31477,7 +31429,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K862">
         <v>0.002785515320334262</v>
